--- a/data/trans_dic/P04B1_1_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_1_2023-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6666900347921274</v>
+        <v>0.6677835195174042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.70041237570557</v>
+        <v>0.7019155819212139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6945420652017519</v>
+        <v>0.694186653349123</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7394317389033764</v>
+        <v>0.7419934205717338</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7544763798072343</v>
+        <v>0.7557583829061217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7405325748058189</v>
+        <v>0.7418880348099285</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.6421531613753226</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6306206273176849</v>
+        <v>0.6306206273176848</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.6363357197945615</v>
+        <v>0.6363357197945614</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6074313365217495</v>
+        <v>0.6073764906283914</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6041085571846393</v>
+        <v>0.6043825027754598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6145462846053522</v>
+        <v>0.6137751398836216</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6738291680756143</v>
+        <v>0.6736483119882485</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6581683211516994</v>
+        <v>0.6570664618284455</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6577017843580251</v>
+        <v>0.6558514244548013</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.7182846588560653</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7475318661211653</v>
+        <v>0.7475318661211652</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7431689201361259</v>
+        <v>0.7427696978133116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6870556465436592</v>
+        <v>0.6882784696877419</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7234517313519542</v>
+        <v>0.7225463721379455</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8096534234230977</v>
+        <v>0.8106492953122991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7469715622156422</v>
+        <v>0.7468637186897232</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7683996294656468</v>
+        <v>0.7694387356037893</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.5811170485967432</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5938903128556356</v>
+        <v>0.5938903128556355</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5739798427040999</v>
+        <v>0.5735309036913546</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5566008119374088</v>
+        <v>0.5547094097003444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5717547678088178</v>
+        <v>0.5731342476840174</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6389458451477554</v>
+        <v>0.6392727779104044</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6074385277262075</v>
+        <v>0.6070745326375981</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6139224258499076</v>
+        <v>0.6152195766812191</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6596822535186151</v>
+        <v>0.658816707162635</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6408152353989711</v>
+        <v>0.6383068542747566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6537409373013325</v>
+        <v>0.6531770454819046</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6924732583786457</v>
+        <v>0.6932604245303104</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6679772208576721</v>
+        <v>0.6687310537715124</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6765786255354931</v>
+        <v>0.6756959493363162</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>459768</v>
+        <v>460522</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>514229</v>
+        <v>515332</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>988895</v>
+        <v>988389</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>509933</v>
+        <v>511699</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>553921</v>
+        <v>554863</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1054376</v>
+        <v>1056306</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>635648</v>
+        <v>635590</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>643492</v>
+        <v>643784</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1297704</v>
+        <v>1296075</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>705130</v>
+        <v>704941</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>701076</v>
+        <v>699903</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1388833</v>
+        <v>1384925</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>595197</v>
+        <v>594878</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>557581</v>
+        <v>558574</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1166525</v>
+        <v>1165065</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>648444</v>
+        <v>649242</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>606206</v>
+        <v>606119</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1239001</v>
+        <v>1240676</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>566852</v>
+        <v>566409</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>621691</v>
+        <v>619579</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1203272</v>
+        <v>1206175</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>631011</v>
+        <v>631334</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>678474</v>
+        <v>678068</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1292014</v>
+        <v>1294744</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2325085</v>
+        <v>2322034</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2388874</v>
+        <v>2379523</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4741204</v>
+        <v>4737114</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2440659</v>
+        <v>2443433</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2490130</v>
+        <v>2492940</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4906832</v>
+        <v>4900431</v>
       </c>
     </row>
     <row r="24">
